--- a/Data/dataBase.xlsx
+++ b/Data/dataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="TiagoLocalizacao3" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="TiagoLocalizacao4" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="LSC_HoneyPot" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Experiment2" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="264">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -810,6 +811,15 @@
   </si>
   <si>
     <t xml:space="preserve">RSSI_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiagoLocalizacao12</t>
   </si>
 </sst>
 </file>
@@ -819,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -840,11 +850,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -889,16 +894,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,7 +922,7 @@
   </sheetPr>
   <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A412" activeCellId="0" sqref="A412"/>
     </sheetView>
   </sheetViews>
@@ -12161,8 +12162,8 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13347,42 +13348,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -13417,7 +13418,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -13697,7 +13698,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -13802,7 +13803,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -13837,7 +13838,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -13907,7 +13908,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -14012,7 +14013,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -14082,7 +14083,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -14187,7 +14188,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -14292,7 +14293,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -14817,7 +14818,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -14852,7 +14853,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -14914,42 +14915,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -14984,7 +14985,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -15089,7 +15090,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -15159,7 +15160,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -15334,7 +15335,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -15544,7 +15545,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -15614,7 +15615,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -15684,7 +15685,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -15859,7 +15860,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -15999,7 +16000,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -16034,7 +16035,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -16139,7 +16140,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -16174,7 +16175,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -16244,7 +16245,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -16279,7 +16280,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -16314,7 +16315,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -16349,7 +16350,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -16384,7 +16385,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -16419,7 +16420,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -16481,42 +16482,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -16586,7 +16587,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -16726,7 +16727,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -16796,7 +16797,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -16831,7 +16832,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -16866,7 +16867,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -16901,7 +16902,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -16936,7 +16937,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -16971,7 +16972,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -17041,7 +17042,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -17076,7 +17077,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -17111,7 +17112,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -17286,7 +17287,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -17356,7 +17357,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -17426,7 +17427,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -17496,7 +17497,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -17531,7 +17532,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -17566,7 +17567,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -17636,7 +17637,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -17671,7 +17672,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -17706,7 +17707,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -17811,7 +17812,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -17916,7 +17917,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -17986,7 +17987,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -18048,42 +18049,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -18118,7 +18119,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -18188,7 +18189,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -18223,7 +18224,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -18258,7 +18259,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -18328,7 +18329,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -18363,7 +18364,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -18433,7 +18434,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -18468,7 +18469,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -18503,7 +18504,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -18608,7 +18609,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -18643,7 +18644,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -18678,7 +18679,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -18748,7 +18749,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -18783,7 +18784,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -18818,7 +18819,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -18888,7 +18889,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -18923,7 +18924,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -18958,7 +18959,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -19098,7 +19099,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -19168,7 +19169,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -19273,7 +19274,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -19308,7 +19309,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -19343,7 +19344,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -19378,7 +19379,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -19413,7 +19414,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -19448,7 +19449,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -19483,7 +19484,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -19615,42 +19616,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -19685,7 +19686,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -19825,7 +19826,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -19860,7 +19861,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -19895,7 +19896,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -19930,7 +19931,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -19965,7 +19966,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -20035,7 +20036,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -20105,7 +20106,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -20140,7 +20141,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -20175,7 +20176,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -20280,7 +20281,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -20315,7 +20316,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -20350,7 +20351,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -20490,7 +20491,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -20595,7 +20596,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -20630,7 +20631,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -20665,7 +20666,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -20770,7 +20771,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -20805,7 +20806,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -20840,7 +20841,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -20875,7 +20876,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -20910,7 +20911,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -20980,7 +20981,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -21015,7 +21016,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -21050,7 +21051,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -21085,7 +21086,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -21173,7 +21174,7 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21182,42 +21183,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>7.28978051796</v>
       </c>
@@ -21252,7 +21253,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>8.10434451390117</v>
       </c>
@@ -21287,7 +21288,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6.5000692304</v>
       </c>
@@ -21322,7 +21323,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>5.10890399205</v>
       </c>
@@ -21357,7 +21358,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -21392,7 +21393,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -21427,7 +21428,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7.8000256409835</v>
       </c>
@@ -21462,7 +21463,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.87723936414</v>
       </c>
@@ -21497,7 +21498,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -21532,7 +21533,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2.55556256038</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>8.46938014260784</v>
       </c>
@@ -21602,7 +21603,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.90011538291</v>
       </c>
@@ -21637,7 +21638,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10.4000432691</v>
       </c>
@@ -21672,7 +21673,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1.70320286519</v>
       </c>
@@ -21707,7 +21708,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>7.87720762707192</v>
       </c>
@@ -21742,7 +21743,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6.5924881494</v>
       </c>
@@ -21777,7 +21778,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.55556256037687</v>
       </c>
@@ -21812,7 +21813,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2.82327823638</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -21882,7 +21883,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2.60017307116</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>4.20123791280618</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>9.36217923349046</v>
       </c>
@@ -21987,7 +21988,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>6.86228096189598</v>
       </c>
@@ -22022,7 +22023,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9.10002197799544</v>
       </c>
@@ -22057,7 +22058,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>4.47782313184</v>
       </c>
@@ -22092,7 +22093,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>9.67989669366363</v>
       </c>
@@ -22127,7 +22128,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>3.30006060550409</v>
       </c>
@@ -22162,7 +22163,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -22197,7 +22198,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>5.31515757057</v>
       </c>
@@ -22232,7 +22233,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1.10040901487</v>
       </c>
@@ -22267,7 +22268,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10.9110448629</v>
       </c>
@@ -22302,7 +22303,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>1.70320286519252</v>
       </c>
@@ -22337,7 +22338,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>3.54695644179626</v>
       </c>
@@ -22372,7 +22373,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>1.10018180315801</v>
       </c>
@@ -22407,7 +22408,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1.30034610777</v>
       </c>
@@ -22442,7 +22443,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6.59248814940156</v>
       </c>
@@ -22477,7 +22478,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2.82318968544446</v>
       </c>
@@ -22512,7 +22513,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2.2000909072127</v>
       </c>
@@ -22547,7 +22548,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>9.16626423359048</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>4.05227096823</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>3.40593599470102</v>
       </c>
@@ -22652,7 +22653,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>10.6301881451</v>
       </c>
@@ -22687,7 +22688,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>10.4580543123</v>
       </c>
@@ -22720,6 +22721,1028 @@
       </c>
       <c r="K44" s="1" t="n">
         <v>-40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-77</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-67</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-71</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-67</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-72</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-74</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-72</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-29</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>-68</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>-74</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-29</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-54</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/dataBase.xlsx
+++ b/Data/dataBase.xlsx
@@ -17,6 +17,7 @@
     <sheet name="TiagoLocalizacao4" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="LSC_HoneyPot" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Experiment2" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="dist_rss" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="271">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -820,6 +821,27 @@
   </si>
   <si>
     <t xml:space="preserve">TiagoLocalizacao12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distancia6</t>
   </si>
 </sst>
 </file>
@@ -12155,6 +12177,1483 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>6.12209114600559</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.57770876399966</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5.49923631061623</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>5.4880233235656</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>3.54203331435491</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>6.76756972627545</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2.88444102037119</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>6.28662071386528</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>5.93619406690853</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4.34165866921848</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>7.44311762637136</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2.26274169979695</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7.07683545096253</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>6.45278234562425</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5.14140058738862</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>8.14125297481905</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.78885438199983</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.86902789421921</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.02270603115352</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>5.94121199756413</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-77</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5.66038867923396</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3.29848450049413</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5.4053307021865</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.81730214954387</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3.60471912914169</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.4422205101856</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6.35295206970744</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.5298221281347</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>6.20464342246998</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5.32225516111357</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>4.39294889567361</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7.06823881882892</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1.78885438199983</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7.00411307732821</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>5.89291099542493</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5.18478543432609</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-67</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.13137084989848</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>7.80369143418677</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6.51201965598999</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5.97879586538962</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.4422205101856</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>-71</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>-67</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7.52861208988749</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>7.82007672596631</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>6.06418997063911</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>6.12160109775212</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-72</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6.76756972627545</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>7.02236427423129</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.39392250593202</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>5.34883164812653</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.64924225024706</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>6.01664358259653</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>6.22523895123713</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4.76386397790701</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>4.58541165000483</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.64924225024706</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5.28015151297763</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>5.42895938463349</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.19218320210365</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3.83692585281499</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3.29848450049413</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>5.56862640154643</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>3.63626181675632</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4.21070065428546</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2.68328157299975</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-72</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>5.77234787586472</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.5298221281347</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>6.34740892018153</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4.28280282058374</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4.90244836790761</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2.43310501211929</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>6.55133574166368</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1.78885438199983</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>7.13089054747021</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4.97417329814714</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>5.62298852924315</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2.43310501211929</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-61</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>7.3348483283569</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1.13137084989848</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>7.9176764268313</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>5.69406708776776</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>6.36254665994679</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2.68328157299975</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>6.64830805543786</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5.70487510818598</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>6.1895395628431</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3.65759483814159</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.4422205101856</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>7.24706837279738</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3.39411254969543</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>6.46727144938265</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>6.59017450451807</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>4.43644001424566</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.894427190999916</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>4.79883319151645</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>5.13778162245146</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3.79325717556825</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>4.7250820098703</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>2.92246471321725</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>4.26708331299027</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>6.02461617034646</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>2.90929544735491</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4.6027817675836</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>3.84187454245971</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>-39</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>3.88329756778952</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>6.92011560597076</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2.05718253929981</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>4.66235991746669</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.0199999999999996</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>4.76151236478495</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-69</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>-29</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>4.13569824818011</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>4.95176736125598</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3.83520534000463</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>2.03931361001686</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>3.0996774025695</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>3.50473964796246</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>5.86678787753571</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3.68347661863083</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1.28701204345569</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>3.97834136293003</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>-65</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3.02575610385239</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>6.78315560782738</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>3.75765884561119</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.920217365626187</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>4.87228898978704</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>2.77848879788996</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>7.70038960053321</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>4.04534300152657</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1.31529464379659</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>5.77442637843795</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>3.58775695943859</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>4.93315314986267</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>3.79325717556825</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2.96378136845483</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2.58804945856914</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>3.51681674245332</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>-59</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>2.83746365615491</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>5.85108536939942</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>2.90929544735491</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2.76463379130039</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2.04831638181215</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>4.31128751070953</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2.21882851973739</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>6.76957901202135</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>2.05718253929981</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2.86272597361326</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1.84010869244184</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>5.14773736703807</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1.8676188047886</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>7.68843287022785</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1.30107647738325</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>3.2310988842807</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>2.06620424934226</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>6.00866041643227</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>6.24064099271862</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>3.90322943214974</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.9338094023943</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>3.7884561499376</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>5.40236985035271</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>7.10898023629268</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>3.31710717342687</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1.1933147112141</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>3.68005434742478</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>6.09077991721914</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>-68</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>7.98889228867182</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>2.90929544735491</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1.91541118301006</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>3.79815744802661</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>6.83391542236221</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2.34776489453267</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>6.62117814289874</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>4.68721665810319</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>6.08473499833805</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>-58</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>-74</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>1.5440207252495</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>7.4452669529037</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>4.11436507859961</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>4.6000434780554</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>6.70343195684121</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>-44</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>-57</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>0.974063652950874</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>8.28955969880186</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3.79325717556825</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>4.69506123495743</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>7.38517433782033</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>-29</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>-66</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>-51</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>-54</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>5.3894712171047</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1.41873182807746</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>4.10545977936698</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>4.79232720084929</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-64</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-63</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>3.21446729645831</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>5.82587332509041</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>5.20430590953299</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>4.94695866164252</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>5.55020720333935</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>-56</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-60</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>-62</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -22739,10 +24238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23253,7 +24752,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0.92</v>
@@ -23279,7 +24778,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>1.84</v>
+        <v>-1.84</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0.92</v>
@@ -23305,7 +24804,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0.92</v>
@@ -23331,7 +24830,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1.84</v>
@@ -23357,7 +24856,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>1.84</v>
+        <v>-1.84</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1.84</v>
@@ -23383,7 +24882,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1.84</v>
@@ -23409,7 +24908,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1.84</v>
@@ -23435,7 +24934,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2.76</v>
@@ -23461,7 +24960,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>1.84</v>
+        <v>-1.84</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2.76</v>
@@ -23487,7 +24986,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2.76</v>
@@ -23513,7 +25012,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2.76</v>
@@ -23539,7 +25038,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>1.84</v>
+        <v>-1.84</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>4.6</v>
@@ -23565,7 +25064,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>4.6</v>
@@ -23591,7 +25090,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>4.6</v>
@@ -23617,7 +25116,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>1.84</v>
+        <v>-1.84</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>5.52</v>
@@ -23643,7 +25142,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>2.76</v>
+        <v>-2.76</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>5.52</v>
@@ -23669,7 +25168,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>3.68</v>
+        <v>-3.68</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>5.52</v>
@@ -23695,7 +25194,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>4.6</v>
@@ -23721,7 +25220,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>5.52</v>
@@ -23743,6 +25242,14 @@
       </c>
       <c r="H38" s="1" t="n">
         <v>-64</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/dataBase.xlsx
+++ b/Data/dataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13661,8 +13661,8 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24240,7 +24240,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
